--- a/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
+++ b/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="值集" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>MtlPro&amp;Company</t>
-  </si>
-  <si>
-    <t>MtlPro&amp;Company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,10 +87,6 @@
   </si>
   <si>
     <t>AAANLqAAFAABaUNAAA</t>
-  </si>
-  <si>
-    <t>MtlPro&amp;Company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6400</t>
@@ -112,6 +105,14 @@
       </rPr>
       <t>015test</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MtlCtrlSalesOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MtlCtrlSalesOrg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -538,13 +539,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>3</v>
@@ -568,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -579,16 +580,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>2</v>
@@ -597,10 +598,10 @@
         <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>3</v>
@@ -609,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
+++ b/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="值集" sheetId="1" r:id="rId1"/>
     <sheet name="hm_fnd_value_sets" sheetId="2" r:id="rId2"/>
     <sheet name="hm_fnd_values" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <r>
       <t>M</t>
@@ -77,35 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人人乐</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>2008/2/28 18:43:00</t>
-  </si>
-  <si>
     <t>AAANLqAAFAABaUNAAA</t>
-  </si>
-  <si>
-    <t>6400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>015test</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MtlCtrlSalesOrg</t>
@@ -114,13 +87,41 @@
   <si>
     <t>MtlCtrlSalesOrg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>201501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201502</t>
+  </si>
+  <si>
+    <t>201503</t>
+  </si>
+  <si>
+    <t>201504</t>
+  </si>
+  <si>
+    <t>201505</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>HEM</t>
+  </si>
+  <si>
+    <t>HPK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -136,6 +137,11 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -161,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +181,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -542,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -580,40 +589,150 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5">
+        <v>6623</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>6620</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>6622</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6500</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6770</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -622,4 +741,69 @@
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="5">
+        <v>6623</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>6620</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>6622</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>6500</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>6770</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
+++ b/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限/work.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <r>
       <t>M</t>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>HPK</t>
+  </si>
+  <si>
+    <t>MtlCtrlSalesOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,12 +583,14 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -592,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5">
         <v>6623</v>
